--- a/_site/Data/ChildcareforOwnChildCC.xlsx
+++ b/_site/Data/ChildcareforOwnChildCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t xml:space="preserve">Are you currently in need of child care for your own child/ren?
@@ -54,6 +54,9 @@
   <si>
     <t xml:space="preserve">• Yes, I need child care  
 • No, I have a child care arrangement </t>
+  </si>
+  <si>
+    <t>08/02/2021-08/26/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following best describes the current child care arrangement for your child/children?
@@ -1434,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1475,60 +1478,60 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="5">
-        <v>27</v>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="258" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="8">
-        <v>27</v>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="243" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="5">
-        <v>27</v>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="242.25" customHeight="1">
       <c r="A5" s="18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="5">
-        <v>27</v>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="159.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="5">
-        <v>27</v>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="176.25" customHeight="1">
@@ -1678,7 +1681,7 @@
       <c r="D27" s="13"/>
       <c r="E27" s="5"/>
       <c r="F27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="65.25" customHeight="1">

--- a/_site/Data/ChildcareforOwnChildCC.xlsx
+++ b/_site/Data/ChildcareforOwnChildCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -204,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -272,6 +272,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1437,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1469,7 +1472,7 @@
       </c>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" ht="153" customHeight="1">
+    <row r="2" spans="1:6" ht="63">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1478,11 +1481,11 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="258" customHeight="1">
+    <row r="3" spans="1:6" ht="252">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1491,11 +1494,11 @@
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="243" customHeight="1">
+    <row r="4" spans="1:6" ht="141.75">
       <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
@@ -1504,11 +1507,11 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="242.25" customHeight="1">
+    <row r="5" spans="1:6" ht="236.25">
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
@@ -1517,11 +1520,11 @@
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="159.75" customHeight="1">
+    <row r="6" spans="1:6" ht="63">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1530,7 +1533,7 @@
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
     </row>

--- a/_site/Data/ChildcareforOwnChildCC.xlsx
+++ b/_site/Data/ChildcareforOwnChildCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjbqX6+aSNqN8UlLhOtdMUc2o5gyA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bxlXeMAho7PwD8wjbVrVTgdPlpRT0jruYxNsUDVnCN8="/>
     </ext>
   </extLst>
 </workbook>
@@ -33,8 +33,8 @@
     <t>Dates Used</t>
   </si>
   <si>
-    <t xml:space="preserve">Are you currently in need of child care for your own child/ren?
-</t>
+    <t>[Display this question if "Do you have a child under the age of 6?" = Yes]
+Are you currently in need of child care for your own child/ren?</t>
   </si>
   <si>
     <t xml:space="preserve">• Yes, I need child care  
@@ -47,8 +47,8 @@
     <t>08/02/2021-08/26/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Which of the following best describes the current child care arrangement for your child/children?
-</t>
+    <t>[Display this question if "Are you currently in need of child care for your own child/ren?" = No, I have a child care arrangement]
+Which of the following best describes the current child care arrangement for your child/children?</t>
   </si>
   <si>
     <t>• Child care is provided at my work Child Care Center
@@ -69,7 +69,8 @@
     <t>https://bipartisanpolicy.org/download/?file=/wp-content/uploads/2021/01/Parent-Survey.Toplines.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">What type of child care do you need? Select all that apply. </t>
+    <t xml:space="preserve">[Display this question if "Are you currently in need of child care for your own child/ren?" = Yes, I need child care]
+What type of child care do you need? Select all that apply. </t>
   </si>
   <si>
     <t>• Full Time
@@ -88,8 +89,8 @@
     <t>https://www.surveymonkey.com/r/8N7T88Z</t>
   </si>
   <si>
-    <t xml:space="preserve">What are the barriers to getting the child care you need for your child? Select all that apply  
-</t>
+    <t>[Display this question if "Are you currently in need of child care for your own child/ren?" = Yes, I need child care]
+What are the barriers to getting the child care you need for your child? Select all that apply</t>
   </si>
   <si>
     <t xml:space="preserve">• Cost of care
@@ -108,8 +109,8 @@
     <t>RAPID Team modified from Obion County Childcare Survey</t>
   </si>
   <si>
-    <t xml:space="preserve">How long have you been seeking child care?
-</t>
+    <t>[Display this question if "Are you currently in need of child care for your own child/ren?" = Yes, I need child care]
+How long have you been seeking child care?</t>
   </si>
   <si>
     <t xml:space="preserve">• 0-3 months
@@ -197,6 +198,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -205,9 +209,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -488,17 +489,17 @@
       <c r="Y1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="2"/>
@@ -524,10 +525,10 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -536,7 +537,7 @@
       <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2"/>
@@ -562,10 +563,10 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -574,7 +575,7 @@
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2"/>
@@ -600,10 +601,10 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -612,7 +613,7 @@
       <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2"/>
@@ -638,15 +639,15 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2"/>
@@ -674,9 +675,9 @@
     <row r="7" ht="176.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -702,9 +703,9 @@
     <row r="8" ht="102.0" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -730,9 +731,9 @@
     <row r="9" ht="102.0" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -758,9 +759,9 @@
     <row r="10" ht="153.0" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -786,9 +787,9 @@
     <row r="11" ht="153.0" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -814,9 +815,9 @@
     <row r="12" ht="153.0" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -842,9 +843,9 @@
     <row r="13" ht="102.0" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -870,9 +871,9 @@
     <row r="14" ht="169.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -898,9 +899,9 @@
     <row r="15" ht="102.0" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -928,7 +929,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -954,9 +955,9 @@
     <row r="17" ht="76.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -984,7 +985,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="5"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1012,7 +1013,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1040,7 +1041,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1068,7 +1069,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1096,7 +1097,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1124,7 +1125,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1152,7 +1153,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1176,11 +1177,11 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="5"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1204,11 +1205,11 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" ht="168.75" customHeight="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1232,11 +1233,11 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" ht="168.75" customHeight="1">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="5"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1262,11 +1263,11 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" ht="65.25" customHeight="1">
-      <c r="A28" s="5"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="5"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>

--- a/_site/Data/ChildcareforOwnChildCC.xlsx
+++ b/_site/Data/ChildcareforOwnChildCC.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bxlXeMAho7PwD8wjbVrVTgdPlpRT0jruYxNsUDVnCN8="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjbqX6+aSNqN8UlLhOtdMUc2o5gyA=="/>
     </ext>
   </extLst>
 </workbook>
